--- a/画面項目一覧.xlsx
+++ b/画面項目一覧.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duypham/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB174841-2298-EC47-9678-59BCB7A2F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286BE04-35DE-6042-9369-50A630680F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8D29782-1CEF-A643-AF06-915CA0F7A1C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="画面項目一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="画面項目一覧" sheetId="3" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -69,27 +69,15 @@
     <t>更新者</t>
   </si>
   <si>
-    <t>NSOC</t>
-  </si>
-  <si>
     <t>機能名</t>
   </si>
   <si>
-    <t>マウント設定情報</t>
-  </si>
-  <si>
     <t>DUY</t>
   </si>
   <si>
-    <t>NSOCシステム</t>
-  </si>
-  <si>
     <t>画面レイアウト</t>
   </si>
   <si>
-    <t>画面項目</t>
-  </si>
-  <si>
     <t>データ型</t>
   </si>
   <si>
@@ -111,75 +99,163 @@
     <t>数値</t>
   </si>
   <si>
-    <t>項番</t>
-  </si>
-  <si>
-    <t>項目名</t>
-  </si>
-  <si>
-    <t>初期値</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>デバイス名</t>
-  </si>
-  <si>
     <t>ー</t>
   </si>
   <si>
-    <t>アクセス</t>
-  </si>
-  <si>
     <t>パラメータ</t>
   </si>
   <si>
-    <t>機能</t>
-  </si>
-  <si>
-    <t>１）</t>
-  </si>
-  <si>
-    <t>初期表示</t>
-  </si>
-  <si>
-    <t>取得情報の例：</t>
-  </si>
-  <si>
-    <t>・「/ect/fstab」の中からマウント情報を取得する</t>
-  </si>
-  <si>
-    <t>第1フィールド：デバイス名</t>
-  </si>
-  <si>
-    <t>・マウントディレクトリが正常にアクセスできることをチェクする</t>
-  </si>
-  <si>
-    <t>第2フィールド：マウントディレクトリ</t>
-  </si>
-  <si>
-    <t>※マウントディレクトリの形：「/home/share/***」</t>
-  </si>
-  <si>
-    <t>ls　/home/share/***</t>
-  </si>
-  <si>
-    <t>例：</t>
-  </si>
-  <si>
-    <t>・情報が表示する</t>
-  </si>
-  <si>
-    <t>価値</t>
-  </si>
-  <si>
-    <t>列の数が増えるとともに、自動的に増加する</t>
+    <t>使用する部品</t>
+  </si>
+  <si>
+    <t>識別ID</t>
+  </si>
+  <si>
+    <t>ラベル</t>
+  </si>
+  <si>
+    <t>画面部品の種類</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>表示範囲</t>
+  </si>
+  <si>
+    <t>画面部品の説明</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>受注番号</t>
+  </si>
+  <si>
+    <t>全角12文字</t>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>取引先番号</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>I,O</t>
+  </si>
+  <si>
+    <t>追加</t>
+  </si>
+  <si>
+    <t>取引先番号で取引先情報の検索ボックス</t>
+  </si>
+  <si>
+    <t>取引先番号で取引先情報の検索ボタン</t>
+  </si>
+  <si>
+    <t>伝票番号</t>
+  </si>
+  <si>
+    <t>伝票番号で伝票情報の検索ボックス</t>
+  </si>
+  <si>
+    <t>伝票番号の検索ボタン</t>
+  </si>
+  <si>
+    <t>伝票区分</t>
+  </si>
+  <si>
+    <t>ドロップダウンリスト</t>
+  </si>
+  <si>
+    <t>伝票情報</t>
+  </si>
+  <si>
+    <t>伝票情報の検索結果表、伝票情報の入力ボックス</t>
+  </si>
+  <si>
+    <t>表、テキストボックス</t>
+  </si>
+  <si>
+    <t>伝票区分を選択するドロップダウンリスト</t>
+  </si>
+  <si>
+    <t>受注伝票</t>
+  </si>
+  <si>
+    <t>受注番号で受注情報の検索ボックス</t>
+  </si>
+  <si>
+    <t>受注番号で受注情報の検索ボタン</t>
+  </si>
+  <si>
+    <t>テキスト、数値</t>
+  </si>
+  <si>
+    <t>受注伝票の情報表</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>受注削除ボタン</t>
+  </si>
+  <si>
+    <t>瀬戸内海印刷WEBサイト</t>
+  </si>
+  <si>
+    <t>上下ボタン</t>
+  </si>
+  <si>
+    <t>表示位置を上下させるボタン</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>金額の合計表</t>
+  </si>
+  <si>
+    <t>伝票情報を保存するボタン</t>
+  </si>
+  <si>
+    <t>受注の情報</t>
+  </si>
+  <si>
+    <t>受注情報の検索結果表（修正可能）</t>
+  </si>
+  <si>
+    <t>取引先情報の検索結果表</t>
+  </si>
+  <si>
+    <t>取引先情報</t>
+  </si>
+  <si>
+    <t>操作手順</t>
+  </si>
+  <si>
+    <t>⑤で表示されている情報を⑪の最終行に追加する</t>
   </si>
   <si>
     <r>
-      <t>　　　　　　　マウントディレクトチェクの戻り値を元にして 
-・「</t>
+      <t>1, 取引先番号を入力し、「表示」ボタンを押下すると、取引先の情報が表示されます。
+2, 請求月、伝票区分（選択）、発行日、売上日を入力する。（全項目修正可能）
+3, 受注番号を入力し、「表示」ボタンを押下すると、受注伝票より情報を取得して表示する。（各項目は修正可能、但し修正した内容は受注伝票には反映されない）</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +263,9 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>アクセスできません</t>
+      <t xml:space="preserve">
+　- グラビアの場合：ロットNoを「ロットNo.XXX」の形式で表示（ロットNoの文言部分は設定ファイルで変更可能とする。）
+</t>
     </r>
     <r>
       <rPr>
@@ -197,7 +275,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>」というテキストがある場合は「</t>
+      <t xml:space="preserve">4, 「追加」ボタンを押下すると、⑤で表示されている受注NO、品名・規格、数量、単位、単価、備考欄を⑪の最終行に追加する。
+</t>
     </r>
     <r>
       <rPr>
@@ -205,7 +284,9 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>NG</t>
+      <t>　- 金額については数量×単価で計算した値を表示する。
+　- ⑭で自動的に金額を合計する。
+　- 伝票区分が４：仮伝の場合は単価と金額は表示対象外とする。</t>
     </r>
     <r>
       <rPr>
@@ -215,16 +296,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>」が表示する
-・他の場合は「</t>
+      <t xml:space="preserve">
+5, 操作ボタンで一覧表の表示を操作する。
+「削除」ボタン：1行削除し、上に詰める
+「↑↓」ボタン：表示位置を上下させる。
+6, 「登録」ボタン押下すると、伝票番号を取得し、⑨⑩⑪⑯に表示されている内容をDBに登録する。DB登録後は登録した内容を画面に表示する。
+伝票区分</t>
     </r>
     <r>
       <rPr>
         <sz val="20"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>YES</t>
+      <t>「４：仮伝」</t>
     </r>
     <r>
       <rPr>
@@ -234,7 +319,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>」が表示する</t>
+      <t xml:space="preserve">以外で⑪の単価が表示されていない場合は、受注伝票より単価を取得し、数量×単価で金額を算出してDBに登録する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>※伝票番号は編集不可に変更する。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7, 伝票番号を入力し、「検索」ボタンを押下すると、登録されている伝票（⑨⑩⑪⑯）を表示する。</t>
     </r>
   </si>
 </sst>
@@ -242,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,25 +385,6 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -449,12 +535,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -462,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,28 +559,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,50 +625,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,23 +673,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>804931</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17943</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>17887</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>103896</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>237066</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92311002-D587-614F-B251-B0EB6F7A56BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75747C5-D12C-8646-B91D-41E3C1CA92AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -607,8 +705,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3040846" y="7512677"/>
-          <a:ext cx="18871126" cy="1713754"/>
+          <a:off x="839708" y="1866898"/>
+          <a:ext cx="15025829" cy="9793618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,180 +715,3083 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83670</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>328706</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3036C66-BD13-191C-5111-4B13221843FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="905435" y="4303059"/>
+          <a:ext cx="13124330" cy="836706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47811</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A40509-D1B1-164B-AEF8-E3048C342048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869576" y="5886824"/>
+          <a:ext cx="2447365" cy="1305860"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑯</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>738095</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>230094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>268940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDE0D9A-107F-CD44-B5DA-9534A65F2D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439154" y="7267388"/>
+          <a:ext cx="1234141" cy="2668493"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑬</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>597647</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>239059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AB6A9B-D6A8-874A-91CB-2801AF965D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13381318" y="7291294"/>
+          <a:ext cx="917388" cy="2614706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑫</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>699247</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1105647</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>194236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0043FCD2-3FFF-2E4B-9157-D6B3F656110B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9738659" y="6140823"/>
+          <a:ext cx="1616635" cy="762001"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>881531</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C484C0C-4374-DA45-ACCD-EAF9F9FC7F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14582590" y="4288118"/>
+          <a:ext cx="1494116" cy="911412"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563794</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>298824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155403</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75367032-73C3-F44B-A185-018AD2D7C4B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790029" y="3720353"/>
+          <a:ext cx="1235139" cy="478118"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>35773</xdr:rowOff>
+      <xdr:colOff>175322</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDD16C3-4CFE-B444-BCE8-F4D8BF4A3378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4045087" y="3346824"/>
+          <a:ext cx="1468207" cy="930585"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571879</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>315008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17887</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>120189</xdr:rowOff>
+      <xdr:colOff>328704</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>135714</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="四角形: 角を丸くする 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D891052-BA1C-4641-A84D-6D76B914C543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AD2115-D620-D943-A74C-843778FA30C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3881550" y="9802252"/>
-          <a:ext cx="3309154" cy="406387"/>
+          <a:off x="6085173" y="3736537"/>
+          <a:ext cx="1400355" cy="478118"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>17888</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>17888</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>240302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>411408</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>213846</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>986117</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>184770</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="四角形: 角を丸くする 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0E8156-9F64-0645-B821-88D9A935219A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836A93E5-0EF2-FA47-A7B4-AB95A041CA7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3899437" y="10750282"/>
-          <a:ext cx="5562957" cy="517930"/>
+          <a:off x="7470588" y="3333126"/>
+          <a:ext cx="1494117" cy="930585"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>17887</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>178873</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>671126</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>321971</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>268942</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="四角形: 角を丸くする 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02203C34-4F4C-9C40-8A3B-E54EE872A7D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A445B1-6F61-234C-81C2-30FCE6484E78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3899436" y="12914648"/>
-          <a:ext cx="5822676" cy="465070"/>
+          <a:off x="3272117" y="5289177"/>
+          <a:ext cx="2644589" cy="702236"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4537</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>17887</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399441</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>195477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>283882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88779783-88B2-5446-882C-DC7DC25353B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5912735" y="5260536"/>
+          <a:ext cx="1333736" cy="745817"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>743087</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>466338</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>104587</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104589</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="四角形: 角を丸くする 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B3D4B0-0A58-8B40-853C-5A3355288E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CB29E6-D4D5-5F48-8960-817F4AE4C3FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="827354" y="2110704"/>
-          <a:ext cx="15272505" cy="4811690"/>
+          <a:off x="9782499" y="5438588"/>
+          <a:ext cx="5950559" cy="717177"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1464235</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8CDB16-2D7D-E949-A029-C8976A43740D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="911412" y="7261411"/>
+          <a:ext cx="12460941" cy="2226236"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-JP" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑪</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339676</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239059</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>298824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D4F544-7ECF-3B41-85AB-739EFE801371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8318264" y="9547412"/>
+          <a:ext cx="2170442" cy="418353"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑭</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1658470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>283884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>164354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4083A48-6241-804C-833A-DB47506ABA72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13566588" y="9950825"/>
+          <a:ext cx="1150471" cy="1195294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1120589</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C72AA5-1D86-C549-9383-A201DB41ABBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11370236" y="6170706"/>
+          <a:ext cx="4362823" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>956235</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1553882</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Oval 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86366A9-1C54-614C-97D4-709F9C9590AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16584706" y="5573060"/>
+          <a:ext cx="597647" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent4"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>９</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104587</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>956235</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Connector 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29341C3-D8F6-204F-99C4-CC58D4827A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="3"/>
+          <a:endCxn id="113" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15733058" y="5797177"/>
+          <a:ext cx="851648" cy="29883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>956235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Straight Connector 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DC5AF2-F7D5-A648-A759-11C4E8B88F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="3"/>
+          <a:endCxn id="113" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15733059" y="5827060"/>
+          <a:ext cx="851647" cy="724646"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1280,11 +4281,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB54F99-5DE7-5D42-88C7-766F4AC51432}">
-  <dimension ref="A1:AC61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307598EF-EEE3-2B48-911E-9474AE85F47D}">
+  <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="67" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -1303,484 +4304,1431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="39" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="27" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="27" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="27" t="s">
+      <c r="W1" s="10"/>
+      <c r="X1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="27" t="s">
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="27" t="s">
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="28"/>
+      <c r="AC1" s="16"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="30">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="17">
         <v>45196</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="28"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="16"/>
     </row>
     <row r="4" spans="1:29" ht="33">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="O11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="33">
+      <c r="A36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="33">
+      <c r="A39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="B41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="L41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
     </row>
-    <row r="22" spans="1:25" ht="33">
-      <c r="A22" s="18" t="s">
+    <row r="42" spans="1:27">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="21"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="B43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="21"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="B44" s="5">
+        <v>3</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="21"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="B45" s="5">
+        <v>4</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="21"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="24"/>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="B46" s="5">
+        <v>5</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="M46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="21"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
     </row>
-    <row r="24" spans="1:25">
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="4" t="s">
+    <row r="47" spans="1:27" ht="26" customHeight="1">
+      <c r="B47" s="5">
+        <v>6</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="21"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="B48" s="5">
+        <v>7</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="21"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="B49" s="5">
+        <v>8</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="21"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="B50" s="5">
+        <v>9</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N50" s="21"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="B51" s="5">
+        <v>10</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N51" s="21"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+    </row>
+    <row r="52" spans="1:27" ht="54">
+      <c r="B52" s="6">
+        <v>11</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" s="34"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="B53" s="5">
+        <v>12</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="21"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="B54" s="5">
+        <v>13</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="21"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="B55" s="5">
+        <v>14</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" s="21"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="B56" s="5">
+        <v>15</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="21"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="24"/>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="B57" s="5">
         <v>16</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="C57" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="21"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+      <c r="AA57" s="24"/>
     </row>
-    <row r="25" spans="1:25">
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="21">
-        <v>1</v>
-      </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="23"/>
+    <row r="59" spans="1:27" ht="33">
+      <c r="A59" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
     </row>
-    <row r="26" spans="1:25">
-      <c r="B26" s="5">
-        <v>2</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="23"/>
+    <row r="60" spans="1:27" ht="26" customHeight="1">
+      <c r="B60" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="36"/>
     </row>
-    <row r="27" spans="1:25">
-      <c r="B27" s="5">
-        <v>3</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="23"/>
+    <row r="61" spans="1:27">
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
     </row>
-    <row r="29" spans="1:25" ht="33">
-      <c r="A29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+    <row r="62" spans="1:27">
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="36"/>
     </row>
-    <row r="30" spans="1:25">
-      <c r="B30" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="63" spans="1:27">
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
+      <c r="Z63" s="36"/>
+      <c r="AA63" s="36"/>
     </row>
-    <row r="32" spans="1:25" ht="33">
-      <c r="A32" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+    <row r="64" spans="1:27">
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="65" spans="2:27">
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
     </row>
-    <row r="34" spans="2:4">
-      <c r="C34" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="66" spans="2:27" ht="26" customHeight="1">
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="36"/>
     </row>
-    <row r="35" spans="2:4">
-      <c r="D35" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="67" spans="2:27">
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
+      <c r="Z67" s="36"/>
+      <c r="AA67" s="36"/>
     </row>
-    <row r="42" spans="2:4">
-      <c r="D42" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="68" spans="2:27">
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="36"/>
+      <c r="AA68" s="36"/>
     </row>
-    <row r="45" spans="2:4">
-      <c r="D45" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="69" spans="2:27">
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="36"/>
     </row>
-    <row r="48" spans="2:4">
-      <c r="D48" s="9" t="s">
-        <v>38</v>
-      </c>
+    <row r="70" spans="2:27">
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
     </row>
-    <row r="50" spans="3:15">
-      <c r="C50" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="71" spans="2:27">
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="36"/>
+      <c r="AA71" s="36"/>
     </row>
-    <row r="51" spans="3:15" ht="31">
-      <c r="D51" s="10" t="s">
-        <v>39</v>
-      </c>
+    <row r="72" spans="2:27">
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="36"/>
     </row>
-    <row r="53" spans="3:15">
-      <c r="D53" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="73" spans="2:27">
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="36"/>
+      <c r="Z73" s="36"/>
+      <c r="AA73" s="36"/>
     </row>
-    <row r="55" spans="3:15">
-      <c r="C55" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="74" spans="2:27">
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
+      <c r="Z74" s="36"/>
+      <c r="AA74" s="36"/>
     </row>
-    <row r="56" spans="3:15">
-      <c r="D56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
+    <row r="75" spans="2:27">
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="36"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="36"/>
+      <c r="Z75" s="36"/>
+      <c r="AA75" s="36"/>
     </row>
-    <row r="57" spans="3:15">
-      <c r="D57" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+    <row r="76" spans="2:27">
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="36"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="36"/>
+      <c r="Z76" s="36"/>
+      <c r="AA76" s="36"/>
     </row>
-    <row r="58" spans="3:15">
-      <c r="D58" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+    <row r="77" spans="2:27">
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="36"/>
+      <c r="Z77" s="36"/>
+      <c r="AA77" s="36"/>
     </row>
-    <row r="59" spans="3:15" ht="26" customHeight="1">
-      <c r="D59" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-    </row>
-    <row r="60" spans="3:15">
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-    </row>
-    <row r="61" spans="3:15">
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
+    <row r="78" spans="2:27">
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="36"/>
+      <c r="Z78" s="36"/>
+      <c r="AA78" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="90">
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="B60:AA78"/>
+    <mergeCell ref="R55:AA55"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:AA56"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:AA57"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R41:AA41"/>
+    <mergeCell ref="R42:AA42"/>
+    <mergeCell ref="R43:AA43"/>
+    <mergeCell ref="R44:AA44"/>
+    <mergeCell ref="R45:AA45"/>
+    <mergeCell ref="R46:AA46"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R53:AA53"/>
+    <mergeCell ref="R54:AA54"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R51:AA51"/>
+    <mergeCell ref="R52:AA52"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R49:AA49"/>
+    <mergeCell ref="R50:AA50"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R47:AA47"/>
+    <mergeCell ref="R48:AA48"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
+    <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:U1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="P25:Y25"/>
-    <mergeCell ref="P26:Y26"/>
-    <mergeCell ref="P27:Y27"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="P24:Y24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="K56:O56"/>
-    <mergeCell ref="K57:O57"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="D59:J61"/>
-    <mergeCell ref="K59:O61"/>
-    <mergeCell ref="D58:J58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/画面項目一覧.xlsx
+++ b/画面項目一覧.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duypham/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPF007\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286BE04-35DE-6042-9369-50A630680F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033820FD-403E-49AC-875C-143191C82F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8D29782-1CEF-A643-AF06-915CA0F7A1C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{B8D29782-1CEF-A643-AF06-915CA0F7A1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="画面項目一覧" sheetId="3" r:id="rId1"/>
+    <sheet name="変更内容" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="I_O">[1]選択リスト値!$C$3:$C$5</definedName>
@@ -24,7 +26,7 @@
     <definedName name="改行有無">[1]選択リスト値!$E$3:$E$4</definedName>
     <definedName name="表示位置">[1]選択リスト値!$D$3:$D$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -141,9 +143,6 @@
     <t>ボタン</t>
   </si>
   <si>
-    <t>取引先番号</t>
-  </si>
-  <si>
     <t>検索</t>
   </si>
   <si>
@@ -159,12 +158,6 @@
     <t>追加</t>
   </si>
   <si>
-    <t>取引先番号で取引先情報の検索ボックス</t>
-  </si>
-  <si>
-    <t>取引先番号で取引先情報の検索ボタン</t>
-  </si>
-  <si>
     <t>伝票番号</t>
   </si>
   <si>
@@ -177,9 +170,6 @@
     <t>伝票区分</t>
   </si>
   <si>
-    <t>ドロップダウンリスト</t>
-  </si>
-  <si>
     <t>伝票情報</t>
   </si>
   <si>
@@ -189,9 +179,6 @@
     <t>表、テキストボックス</t>
   </si>
   <si>
-    <t>伝票区分を選択するドロップダウンリスト</t>
-  </si>
-  <si>
     <t>受注伝票</t>
   </si>
   <si>
@@ -213,9 +200,6 @@
     <t>受注削除ボタン</t>
   </si>
   <si>
-    <t>瀬戸内海印刷WEBサイト</t>
-  </si>
-  <si>
     <t>上下ボタン</t>
   </si>
   <si>
@@ -247,9 +231,6 @@
   </si>
   <si>
     <t>操作手順</t>
-  </si>
-  <si>
-    <t>⑤で表示されている情報を⑪の最終行に追加する</t>
   </si>
   <si>
     <r>
@@ -271,7 +252,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -292,7 +273,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,7 +296,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,7 +315,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,16 +323,516 @@
 7, 伝票番号を入力し、「検索」ボタンを押下すると、登録されている伝票（⑨⑩⑪⑯）を表示する。</t>
     </r>
   </si>
+  <si>
+    <t>⑤で表示されている情報を⑪の最終行に追加する</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>瀬戸内海印刷ウェブサイト</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">伝票区分を選択するドロップダウンリスト
+　１：売上
+　２：預り売上
+　３：預り出荷
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>４：仮伝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　５：赤伝</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変更部分</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウブブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ビューア</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「発行日付、取引先番号、伝票区分、品種」ボックスを削除する。
+「受注番号と伝票番号」ボックスしか残ってない。</t>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変更部分</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「更新」から「追加」になる。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>取引先番号で取引先情報の検索ボックス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>取引先番号</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>取引先番号の検索ボックスと表示ボタンを追加する</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>取引先番号で取引先情報の検索ボタン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「表示」ボタンを押しと「取引先番号」で取引先情報を検索する。</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1,「登録」ボタンを押下し,伝票管理番号を取得後,請求情報を登録する。                                                                                                                                                                                                                                                               伝票管理番号は情報登録後に表示する。
+2, 伝票管理番号の登録されている請求情報を表示する場所。</t>
+    <rPh sb="335" eb="337">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ドロップダウンリスト</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テキストボックスからドロップダウンリストになる。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>伝票区分を選択するドロップダウンリスト：「１：売上、２：預り売上、３：預り出荷、４：仮伝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>５：赤伝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>伝票区分が「４：仮伝」の場合、明細行に単価、金額は表示しない。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>識別ID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>１，金額は数量×単価で計算した値を表示する、修正しても反映されない、追加ボタン押下すると数量×単金の計算結果となる。
+２，数量と単価が修正されると自動的に金額をもう一度計算する</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「削除と上下」ボタンを追加する。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウエシタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1,削除ボタンを押すと画面表示上は1行削除されていますが、請求情報への登録はされていない状態です。
+2,「↑」ボタンを押下し、1行上に移動する。
+3,「↓」ボタンを押下し、1行下に移動する。</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「クリア」から「登録」になる。</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1, 「伝票管理番号」が存在している場合はこの伝票管理番号に応じてデータを削除後、新しいデータを登録する。
+2, 「伝票管理番号」が存在していない場合は伝票管理番号を取得後、請求情報を登録する。
+3, 伝票管理番号は⑤に表示する。</t>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ファンション</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ukeru1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>FORMで送られた情報を受ける処理：取引先番号、受注番号、商品名、担当、単価、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>session1*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、加減算、在庫数、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>torihiki_item*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、check_item</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ukeru2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>FORMで送られた情報を受ける処理：denpyo_no、denpyo_no2、renban、取引先名、zipcode、住所１、住所２、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>namae_soto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、商品コード、伝票区分、数量</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ukeru4</t>
+  </si>
+  <si>
+    <t>ukeru3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ukeru5</t>
+  </si>
+  <si>
+    <t>FORMで送られた情報を受ける処理：単位、金閣、発行日、担当名、担当、備考、締日、請求月、tekiyo、denpyo_new、za_torihikisaki_no、za_torihikisaki_mei</t>
+    <rPh sb="21" eb="23">
+      <t>キンカク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>タントウメイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FORMで送られた情報を受ける処理：joho_ymd、joho_torihikisaki、joho_kubun、joho_juchuno、joho_hakobi、processing、kensaku_no、kensaku_kubun、kari_zaiko1、kari_zaiko2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FORMで送られた情報を受ける処理：shohinmei、uri_tanka、kanmi、ig_kubun、shohin_kensu、bango、hinshu、hinshu_teisei</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sime</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>setuzoku</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dau vao 発行日Tim kiem 取引先 bang 取引先番号, lay duoc 請求月, 締日</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hyoji</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>input:取引先番号,発行日,伝票区分,受注番号,品種, hien thi du lieu: 取引先番号,発行日,伝票区分,受注番号,品種</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hyoji_meisai001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>在庫数を取得する</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hyoji_meisai002</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hyoji_shori</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>kensaku</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>kosin</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>zaiko_kosin</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>zaiko_clear</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>denpyo_max</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>keka</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>keka_clear</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ymd</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>renban</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>uriage_zaiko</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>azukari_zaiko</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>azukari_shuka</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>torihikisaki</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>shohin</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>shain</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>session_clear</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>kensaku_hyoji</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>shohin_kensaku</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>chusi</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hinshu</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>select * from seikyu where (denpyo_no='$denpyo_no') and (denpyo_kubun='$denpyo_kubun')</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -371,7 +852,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -386,6 +867,46 @@
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -414,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -540,11 +1061,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,11 +1133,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,37 +1172,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,19 +1188,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,12 +1214,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,8 +1360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="839708" y="1866898"/>
-          <a:ext cx="15025829" cy="9793618"/>
+          <a:off x="909645" y="1953366"/>
+          <a:ext cx="16269761" cy="12497336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3271,15 +3926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1658470</xdr:colOff>
+      <xdr:colOff>1766556</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>283884</xdr:rowOff>
+      <xdr:rowOff>378459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:colOff>1124086</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>164354</xdr:rowOff>
+      <xdr:rowOff>258929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3294,8 +3949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13566588" y="9950825"/>
-          <a:ext cx="1150471" cy="1195294"/>
+          <a:off x="14682726" y="12294842"/>
+          <a:ext cx="1289551" cy="1555789"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3666,7 +4321,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2000">
+            <a:rPr lang="en-US" sz="2000" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3797,196 +4452,3053 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26987</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>578204</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76860BB2-A0A7-41FB-8DCA-024B9AF784E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788987" y="2024063"/>
+          <a:ext cx="15026042" cy="11334749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>735013</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3592661B-716C-4204-ADA8-D80A0EED603A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22071013" y="2024063"/>
+          <a:ext cx="15427325" cy="11387053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>354012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>541336</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矢印: 右 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA1DCEE-D3FC-486B-9A76-D625804E2010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16692562" y="7235825"/>
+          <a:ext cx="4422774" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68262</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A33AF3-9278-4234-86F2-FFA4EDD7A46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2354262" y="3643312"/>
+          <a:ext cx="14028738" cy="1027113"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C037D196-DAEF-4EEC-A896-DAA386C4D3EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858250" y="6102349"/>
+          <a:ext cx="3429000" cy="922338"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D0F7B1-F8B4-4729-8D5B-740ACA4E77D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3625850" y="6167438"/>
+          <a:ext cx="2565400" cy="595312"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>258762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0B0C04-0DB0-40D6-9368-5A204DD0C2EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24523700" y="6099176"/>
+          <a:ext cx="4456112" cy="636586"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539002</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876C53B4-E0E1-4569-9494-C940CAE6F862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8864599" y="6953250"/>
+          <a:ext cx="1580403" cy="1143030"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>217487</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1CB149-61D5-49A7-B096-EDBAB2B08928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31218187" y="6197600"/>
+          <a:ext cx="3289300" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>30163</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>217487</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F430211-EB2A-4EB4-8C06-AD7EBF51E7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31272163" y="7024688"/>
+          <a:ext cx="1711324" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>544512</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0C04D8-4E76-43AE-878B-BE70E5765833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6640512" y="8235950"/>
+          <a:ext cx="5646738" cy="2360612"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>601662</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EE998C-40B8-43EE-AED3-55DD44FAEF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34891662" y="8239126"/>
+          <a:ext cx="3327400" cy="2741611"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6D7C0A-9768-4DC7-81D7-C0711528B61D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27095450" y="8286750"/>
+          <a:ext cx="4908550" cy="2547937"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>350837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323E9231-C93E-4F1E-A96C-0A43874E50E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="4803775"/>
+          <a:ext cx="5473700" cy="1030287"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>636588</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>315913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F546532D-5380-470D-AB93-26D1E66D92EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14352588" y="4768851"/>
+          <a:ext cx="2054224" cy="1089024"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>26989</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449D3502-7BEF-4290-8071-109DD790573E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12218989" y="11093451"/>
+          <a:ext cx="1425573" cy="1638330"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>592138</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>233391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C8226-9147-467E-ABA3-084A60305A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35075813" y="11144249"/>
+          <a:ext cx="1330325" cy="1638330"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>639763</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48613D9A-C938-4FA9-A904-BF8DA54725E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28833763" y="4833938"/>
+          <a:ext cx="4718050" cy="1030287"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="四角形: 角を丸くする 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D08031F-4811-4127-9653-598429AF5BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36144200" y="4833938"/>
+          <a:ext cx="1812925" cy="993774"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>407987</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>354013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>304830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F32693F-EC89-423C-89F5-2DCD4B11A11A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24029987" y="3592513"/>
+          <a:ext cx="6783388" cy="1165255"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16014"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="改訂履歴"/>
-      <sheetName val="処理概要"/>
-      <sheetName val="画面レイアウト"/>
-      <sheetName val="画面項目一覧"/>
-      <sheetName val="項目別入力チェック"/>
-      <sheetName val="画面項目表示条件"/>
-      <sheetName val="画面入出力処理設計"/>
-      <sheetName val="利用規約"/>
-      <sheetName val="SOQL"/>
       <sheetName val="選択リスト値"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>id</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>I</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>中央寄せ</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>あり</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>自動採番</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>O</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>右寄せ</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>なし</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>数式</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>左寄せ</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>積み上げ集計 </v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>外部参照関係</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>参照関係</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>主従関係</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>URL</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>チェックボックス</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>テキスト</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>テキスト(暗号化) </v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>テキストエリア</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>パーセント</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>メール</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>テキストエリア (リッチ)</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>ロングテキストエリア</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>時間</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>数値</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>選択リスト</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>選択リスト (複数選択)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>地理位置情報</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>通貨</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>電話</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>日付</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>日付/時間</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>ボタン</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4284,152 +7796,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307598EF-EEE3-2B48-911E-9474AE85F47D}">
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="32.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5" style="1" customWidth="1"/>
-    <col min="14" max="15" width="25.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.84375" style="1"/>
+    <col min="2" max="2" width="18.4609375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="10.84375" style="1"/>
+    <col min="9" max="9" width="10.84375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.84375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.84375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.84375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.4609375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="25.3046875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.3046875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.84375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="39" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="9" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="9" t="s">
+      <c r="W1" s="13"/>
+      <c r="X1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="9" t="s">
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="9" t="s">
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="16"/>
+      <c r="AC1" s="14"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="17">
-        <v>45196</v>
-      </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="11" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22">
+        <v>45278</v>
+      </c>
+      <c r="W2" s="13"/>
+      <c r="X2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="33">
-      <c r="A4" s="14" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="14"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="11" spans="1:29">
       <c r="O11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="33">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:27">
+      <c r="A36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:27">
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="33">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:27">
+      <c r="A39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="41" spans="1:27">
       <c r="B41" s="4" t="s">
@@ -4453,43 +7965,43 @@
       <c r="L41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="M41" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="26"/>
-      <c r="O41" s="27"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
       <c r="P41" s="23" t="s">
         <v>25</v>
       </c>
       <c r="Q41" s="23"/>
-      <c r="R41" s="29" t="s">
+      <c r="R41" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
     </row>
     <row r="42" spans="1:27">
       <c r="B42" s="5">
         <v>1</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>18</v>
@@ -4497,79 +8009,79 @@
       <c r="L42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="24" t="s">
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="1:27">
       <c r="B43" s="5">
         <v>2</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="20" t="s">
+      <c r="M43" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
     </row>
     <row r="44" spans="1:27">
       <c r="B44" s="5">
         <v>3</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
+      <c r="C44" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>18</v>
@@ -4577,129 +8089,129 @@
       <c r="L44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="24" t="s">
+      <c r="N44" s="29"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="24"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
     </row>
     <row r="45" spans="1:27">
       <c r="B45" s="5">
         <v>4</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="C45" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="20" t="s">
+      <c r="M45" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N45" s="21"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
     </row>
     <row r="46" spans="1:27">
       <c r="B46" s="5">
         <v>5</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="C46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M46" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
+      <c r="M46" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" s="29"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
     </row>
     <row r="47" spans="1:27" ht="26" customHeight="1">
       <c r="B47" s="5">
         <v>6</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+      <c r="C47" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="20" t="s">
+      <c r="M47" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="21"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
       <c r="R47" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S47" s="31"/>
       <c r="T47" s="31"/>
@@ -4715,281 +8227,281 @@
       <c r="B48" s="5">
         <v>7</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
+      <c r="C48" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N48" s="21"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="24" t="s">
+      <c r="N48" s="29"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
     </row>
     <row r="49" spans="1:27">
       <c r="B49" s="5">
         <v>8</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N49" s="21"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
     </row>
     <row r="50" spans="1:27">
       <c r="B50" s="5">
         <v>9</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
+      <c r="C50" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
       <c r="J50" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N50" s="21"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-    </row>
-    <row r="51" spans="1:27">
-      <c r="B51" s="5">
+      <c r="M50" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" s="29"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+    </row>
+    <row r="51" spans="1:27" s="11" customFormat="1" ht="205" customHeight="1">
+      <c r="B51" s="9">
         <v>10</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N51" s="21"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-    </row>
-    <row r="52" spans="1:27" ht="54">
+      <c r="C51" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+    </row>
+    <row r="52" spans="1:27" ht="65">
       <c r="B52" s="6">
         <v>11</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="C52" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
       <c r="J52" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="32" t="s">
-        <v>52</v>
+      <c r="L52" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="M52" s="33" t="s">
         <v>30</v>
       </c>
       <c r="N52" s="34"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
     </row>
     <row r="53" spans="1:27">
       <c r="B53" s="5">
         <v>12</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
+      <c r="C53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="20" t="s">
+      <c r="M53" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24"/>
-      <c r="AA53" s="24"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
     </row>
     <row r="54" spans="1:27">
       <c r="B54" s="5">
         <v>13</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
+      <c r="C54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="20" t="s">
+      <c r="M54" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N54" s="21"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
     </row>
     <row r="55" spans="1:27">
       <c r="B55" s="5">
         <v>14</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
+      <c r="C55" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="5" t="s">
         <v>15</v>
       </c>
@@ -4997,75 +8509,75 @@
       <c r="L55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M55" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N55" s="21"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
-      <c r="AA55" s="24"/>
+      <c r="M55" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" s="29"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
     </row>
     <row r="56" spans="1:27">
       <c r="B56" s="5">
         <v>15</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
+      <c r="C56" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="20" t="s">
+      <c r="M56" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="21"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="24"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
     </row>
     <row r="57" spans="1:27">
       <c r="B57" s="5">
         <v>16</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
+      <c r="C57" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
       <c r="J57" s="5" t="s">
         <v>15</v>
       </c>
@@ -5073,569 +8585,569 @@
       <c r="L57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="20" t="s">
+      <c r="M57" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N57" s="21"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="24"/>
-      <c r="AA57" s="24"/>
-    </row>
-    <row r="59" spans="1:27" ht="33">
-      <c r="A59" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:27" ht="26" customHeight="1">
-      <c r="B60" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
+      <c r="B60" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
     </row>
     <row r="62" spans="1:27">
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="36"/>
-      <c r="AA63" s="36"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
-      <c r="Z64" s="36"/>
-      <c r="AA64" s="36"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
     </row>
     <row r="65" spans="2:27">
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
-      <c r="Z65" s="36"/>
-      <c r="AA65" s="36"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
     </row>
     <row r="66" spans="2:27" ht="26" customHeight="1">
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
     </row>
     <row r="67" spans="2:27">
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
-      <c r="AA67" s="36"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
     </row>
     <row r="68" spans="2:27">
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
-      <c r="Z68" s="36"/>
-      <c r="AA68" s="36"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
     </row>
     <row r="69" spans="2:27">
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="36"/>
-      <c r="AA69" s="36"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
     </row>
     <row r="70" spans="2:27">
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="39"/>
     </row>
     <row r="71" spans="2:27">
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
-      <c r="Z71" s="36"/>
-      <c r="AA71" s="36"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
+      <c r="Z71" s="39"/>
+      <c r="AA71" s="39"/>
     </row>
     <row r="72" spans="2:27">
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
-      <c r="Z72" s="36"/>
-      <c r="AA72" s="36"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="39"/>
+      <c r="Z72" s="39"/>
+      <c r="AA72" s="39"/>
     </row>
     <row r="73" spans="2:27">
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="36"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="36"/>
-      <c r="AA73" s="36"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="39"/>
+      <c r="Z73" s="39"/>
+      <c r="AA73" s="39"/>
     </row>
     <row r="74" spans="2:27">
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="36"/>
-      <c r="Z74" s="36"/>
-      <c r="AA74" s="36"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="39"/>
+      <c r="Z74" s="39"/>
+      <c r="AA74" s="39"/>
     </row>
     <row r="75" spans="2:27">
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="36"/>
-      <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="36"/>
-      <c r="Z75" s="36"/>
-      <c r="AA75" s="36"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
+      <c r="Z75" s="39"/>
+      <c r="AA75" s="39"/>
     </row>
     <row r="76" spans="2:27">
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="36"/>
-      <c r="Z76" s="36"/>
-      <c r="AA76" s="36"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
+      <c r="Z76" s="39"/>
+      <c r="AA76" s="39"/>
     </row>
     <row r="77" spans="2:27">
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
-      <c r="Z77" s="36"/>
-      <c r="AA77" s="36"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
+      <c r="Z77" s="39"/>
+      <c r="AA77" s="39"/>
     </row>
     <row r="78" spans="2:27">
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
-      <c r="Z78" s="36"/>
-      <c r="AA78" s="36"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39"/>
+      <c r="AA78" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -5658,13 +9170,6 @@
     <mergeCell ref="R43:AA43"/>
     <mergeCell ref="R44:AA44"/>
     <mergeCell ref="R45:AA45"/>
-    <mergeCell ref="R46:AA46"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:Q54"/>
     <mergeCell ref="R53:AA53"/>
     <mergeCell ref="R54:AA54"/>
     <mergeCell ref="C51:I51"/>
@@ -5674,6 +9179,12 @@
     <mergeCell ref="M52:O52"/>
     <mergeCell ref="P52:Q52"/>
     <mergeCell ref="R51:AA51"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:Q54"/>
     <mergeCell ref="R52:AA52"/>
     <mergeCell ref="C49:I49"/>
     <mergeCell ref="M49:O49"/>
@@ -5683,12 +9194,6 @@
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="R49:AA49"/>
     <mergeCell ref="R50:AA50"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:Q48"/>
     <mergeCell ref="R47:AA47"/>
     <mergeCell ref="R48:AA48"/>
     <mergeCell ref="C45:I45"/>
@@ -5697,6 +9202,13 @@
     <mergeCell ref="C46:I46"/>
     <mergeCell ref="M46:O46"/>
     <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R46:AA46"/>
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="M43:O43"/>
     <mergeCell ref="C44:I44"/>
@@ -5709,7 +9221,6 @@
     <mergeCell ref="M42:O42"/>
     <mergeCell ref="P41:Q41"/>
     <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A4:F4"/>
@@ -5729,8 +9240,2401 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A36:F36"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC151D-DB4B-40CE-8F80-DC6DDFCDB830}">
+  <dimension ref="A1:AC56"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="32.5">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="13"/>
+      <c r="X1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="14"/>
+    </row>
+    <row r="2" spans="1:29" ht="32.5">
+      <c r="A2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22">
+        <v>45281</v>
+      </c>
+      <c r="W2" s="13"/>
+      <c r="X2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="14"/>
+    </row>
+    <row r="3" spans="1:29" ht="32.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" ht="32.5">
+      <c r="A4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="32.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="32.5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="32.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="32.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="32.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="32.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="32.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="32.5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="32.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="32.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="32.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="32.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" ht="32.5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" ht="32.5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" ht="32.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" ht="32.5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" ht="32.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" ht="32.5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" ht="32.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" ht="32.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" ht="32.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" ht="32.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" ht="32.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" ht="32.5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" ht="32.5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" ht="32.5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" ht="32.5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" ht="32.5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="1:29" ht="32.5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="1:29" ht="32.5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="1:29" ht="32.5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="1:29" ht="32.5">
+      <c r="A36" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="1:29" ht="32.5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="1:29" ht="32.5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="58"/>
+    </row>
+    <row r="39" spans="1:29" ht="63.5" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="51">
+        <v>1</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="42"/>
+    </row>
+    <row r="40" spans="1:29" ht="32.5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="45"/>
+    </row>
+    <row r="41" spans="1:29" ht="32.5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="46">
+        <v>2</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="42"/>
+    </row>
+    <row r="42" spans="1:29" ht="98" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="42"/>
+    </row>
+    <row r="43" spans="1:29" ht="32.5" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="46">
+        <v>3</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="42"/>
+    </row>
+    <row r="44" spans="1:29" ht="32.5" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="42"/>
+    </row>
+    <row r="45" spans="1:29" ht="32.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="46">
+        <v>4</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="42"/>
+    </row>
+    <row r="46" spans="1:29" ht="32.5" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="42"/>
+    </row>
+    <row r="47" spans="1:29" ht="32.5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="46">
+        <v>5</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="42"/>
+    </row>
+    <row r="48" spans="1:29" ht="113" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="42"/>
+    </row>
+    <row r="49" spans="1:27" ht="32.5" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="46">
+        <v>6</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="42"/>
+    </row>
+    <row r="50" spans="1:27" ht="111.5" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="42"/>
+    </row>
+    <row r="51" spans="1:27" ht="32.5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="46">
+        <v>7</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="42"/>
+    </row>
+    <row r="52" spans="1:27" ht="116" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="42"/>
+    </row>
+    <row r="53" spans="1:27" ht="32.5" customHeight="1">
+      <c r="B53" s="46">
+        <v>8</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="42"/>
+    </row>
+    <row r="54" spans="1:27" ht="147.5" customHeight="1">
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="42"/>
+    </row>
+    <row r="55" spans="1:27" ht="32.5" customHeight="1">
+      <c r="B55" s="46">
+        <v>9</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="42"/>
+    </row>
+    <row r="56" spans="1:27" ht="189.5" customHeight="1">
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="41"/>
+      <c r="AA56" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="67">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="H38:AA38"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H55:AA55"/>
+    <mergeCell ref="H56:AA56"/>
+    <mergeCell ref="H54:AA54"/>
+    <mergeCell ref="H39:AA39"/>
+    <mergeCell ref="H40:AA40"/>
+    <mergeCell ref="H41:AA41"/>
+    <mergeCell ref="H42:AA42"/>
+    <mergeCell ref="H43:AA43"/>
+    <mergeCell ref="H44:AA44"/>
+    <mergeCell ref="H45:AA45"/>
+    <mergeCell ref="H46:AA46"/>
+    <mergeCell ref="H47:AA47"/>
+    <mergeCell ref="H48:AA48"/>
+    <mergeCell ref="H49:AA49"/>
+    <mergeCell ref="H50:AA50"/>
+    <mergeCell ref="H51:AA51"/>
+    <mergeCell ref="H52:AA52"/>
+    <mergeCell ref="H53:AA53"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994B72A9-F063-4FCF-B012-CE74CA9CDA57}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="17.07421875" customWidth="1"/>
+    <col min="2" max="2" width="21.53515625" customWidth="1"/>
+    <col min="3" max="3" width="31.765625" customWidth="1"/>
+    <col min="4" max="4" width="22.921875" customWidth="1"/>
+    <col min="5" max="5" width="23.61328125" customWidth="1"/>
+    <col min="6" max="6" width="19.15234375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="17.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+    </row>
+    <row r="2" spans="1:8" ht="40" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" ht="40" customHeight="1">
+      <c r="A3" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="1:8" ht="40" customHeight="1">
+      <c r="A4" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:8" ht="40" customHeight="1">
+      <c r="A5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+    </row>
+    <row r="6" spans="1:8" ht="40" customHeight="1">
+      <c r="A6" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:8" ht="40" customHeight="1">
+      <c r="A7" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40" customHeight="1">
+      <c r="A8" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:8" ht="40" customHeight="1">
+      <c r="A9" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40" customHeight="1">
+      <c r="A10" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:8" ht="40" customHeight="1">
+      <c r="A11" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="1:8" ht="40" customHeight="1">
+      <c r="A12" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" spans="1:8" ht="40" customHeight="1">
+      <c r="A13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="1:8" ht="40" customHeight="1">
+      <c r="A14" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:8" ht="40" customHeight="1">
+      <c r="A15" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="1:8" ht="40" customHeight="1">
+      <c r="A16" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+    </row>
+    <row r="17" spans="1:7" ht="40" customHeight="1">
+      <c r="A17" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" ht="40" customHeight="1">
+      <c r="A18" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" ht="40" customHeight="1">
+      <c r="A19" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" ht="40" customHeight="1">
+      <c r="A20" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7" ht="40" customHeight="1">
+      <c r="A21" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" ht="40" customHeight="1">
+      <c r="A22" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" ht="40" customHeight="1">
+      <c r="A23" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" ht="40" customHeight="1">
+      <c r="A24" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="1:7" ht="40" customHeight="1">
+      <c r="A25" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" ht="40" customHeight="1">
+      <c r="A26" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" spans="1:7" ht="40" customHeight="1">
+      <c r="A27" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" spans="1:7" ht="40" customHeight="1">
+      <c r="A28" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
+    </row>
+    <row r="29" spans="1:7" ht="40" customHeight="1">
+      <c r="A29" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+    </row>
+    <row r="30" spans="1:7" ht="40" customHeight="1">
+      <c r="A30" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" ht="40" customHeight="1">
+      <c r="A31" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" ht="40" customHeight="1">
+      <c r="A32" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" ht="40" customHeight="1">
+      <c r="A33" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>